--- a/biology/Zoologie/Arkys_hickmani/Arkys_hickmani.xlsx
+++ b/biology/Zoologie/Arkys_hickmani/Arkys_hickmani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arkys hickmani est une espèce d'araignées aranéomorphes de la famille des Arkyidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arkys hickmani est une espèce d'araignées aranéomorphes de la famille des Arkyidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Tasmanie en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Tasmanie en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 2,6 mm de long sur 2,1 mm et l'abdomen 3,2 mm de long sur 3,0 mm et la carapace de la femelle paratype mesure 4,2 mm de long sur 3,4 mm et l'abdomen 8 mm de long sur 6,8 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 2,6 mm de long sur 2,1 mm et l'abdomen 3,2 mm de long sur 3,0 mm et la carapace de la femelle paratype mesure 4,2 mm de long sur 3,4 mm et l'abdomen 8 mm de long sur 6,8 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Vernon Victor Hickman[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Vernon Victor Hickman.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Heimer, 1984 : Remarks on the spider genus Arcys Walckenaer, 1837, with description of new species (Araneae, Mimetidae). Entomologische Abhandlungen, Staatliches Museum für Tierkunde Dresden, vol. 47, p. 155-178.</t>
         </is>
